--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D103C8D-8DB4-4340-A314-892D89586BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962235E-CAF8-4AEE-A48C-961516CC03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -722,7 +722,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -839,6 +839,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,12 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1155,7 +1152,7 @@
   </sheetPr>
   <dimension ref="A1:U93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
@@ -1181,29 +1178,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
     </row>
     <row r="2" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32" t="s">
@@ -3129,7 +3126,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
-      <c r="L35" s="43" t="s">
+      <c r="L35" s="28" t="s">
         <v>159</v>
       </c>
       <c r="M35" s="15" t="s">
@@ -4105,7 +4102,7 @@
       <c r="A53" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="44" t="s">
+      <c r="B53" s="40" t="s">
         <v>166</v>
       </c>
       <c r="C53" s="7"/>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8962235E-CAF8-4AEE-A48C-961516CC03E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C619F0-AA12-4C13-8732-6DC9ACB4B259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
   <si>
     <t>Present</t>
   </si>
@@ -212,12 +212,6 @@
     <t>ADP, Total NonFarm Private</t>
   </si>
   <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflation </t>
-  </si>
-  <si>
     <t>Bln $</t>
   </si>
   <si>
@@ -227,9 +221,6 @@
     <t>Retail Sales</t>
   </si>
   <si>
-    <t>Philly Fed</t>
-  </si>
-  <si>
     <t>Export Prices</t>
   </si>
   <si>
@@ -488,9 +479,6 @@
     <t>IR</t>
   </si>
   <si>
-    <t>FEDFUNDS</t>
-  </si>
-  <si>
     <t>DGS2</t>
   </si>
   <si>
@@ -558,6 +546,9 @@
   </si>
   <si>
     <t>*FRED doesn't include real avg. hourly earning data. Calculated through chained PCE deflator (FRED ticker: PCEPI). Ticker "RCES0500000003" is only for reference in the raw data table</t>
+  </si>
+  <si>
+    <t>DFF</t>
   </si>
 </sst>
 </file>
@@ -1150,10 +1141,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1179,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -1204,10 +1195,10 @@
     </row>
     <row r="2" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>24</v>
@@ -1238,7 +1229,7 @@
         <v>6</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>24</v>
@@ -1270,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -1299,7 +1290,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="6" t="s">
@@ -1327,7 +1318,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="34"/>
       <c r="B4" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
@@ -1354,7 +1345,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="28"/>
       <c r="M4" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="6" t="s">
@@ -1384,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -1413,7 +1404,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="6" t="s">
@@ -1441,7 +1432,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="33"/>
       <c r="B6" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -1470,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="6" t="s">
@@ -1497,10 +1488,10 @@
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
@@ -1526,10 +1517,10 @@
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="6" t="s">
@@ -1556,14 +1547,14 @@
     </row>
     <row r="8" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>34</v>
@@ -1588,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="6" t="s">
@@ -1618,7 +1609,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
@@ -1647,7 +1638,7 @@
         <v>45</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="6" t="s">
@@ -1675,7 +1666,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="33"/>
       <c r="B10" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
@@ -1704,7 +1695,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="6" t="s">
@@ -1734,7 +1725,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
@@ -1763,7 +1754,7 @@
         <v>46</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="6" t="s">
@@ -1791,7 +1782,7 @@
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A12" s="33"/>
       <c r="B12" s="15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
@@ -1817,10 +1808,10 @@
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6" t="s">
@@ -1850,7 +1841,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -1879,7 +1870,7 @@
         <v>42</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="6" t="s">
@@ -1907,7 +1898,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
@@ -1936,7 +1927,7 @@
         <v>48</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="6" t="s">
@@ -1966,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -1992,14 +1983,14 @@
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>34</v>
@@ -2023,7 +2014,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A16" s="33"/>
       <c r="B16" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2061,10 +2052,10 @@
     </row>
     <row r="17" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
@@ -2093,7 +2084,7 @@
         <v>5</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N17" s="19" t="s">
         <v>24</v>
@@ -2123,7 +2114,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A18" s="33"/>
       <c r="B18" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -2152,7 +2143,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="6" t="s">
@@ -2179,10 +2170,10 @@
     </row>
     <row r="19" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A19" s="33" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
@@ -2209,7 +2200,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="28"/>
       <c r="M19" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="6" t="s">
@@ -2237,7 +2228,7 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -2266,7 +2257,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="6" t="s">
@@ -2293,14 +2284,14 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A21" s="33" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>34</v>
@@ -2323,7 +2314,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="28"/>
       <c r="M21" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
@@ -2350,14 +2341,14 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A22" s="33" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>34</v>
@@ -2382,7 +2373,7 @@
         <v>38</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="6" t="s">
@@ -2410,7 +2401,7 @@
     <row r="23" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A23" s="33"/>
       <c r="B23" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="6" t="s">
@@ -2436,7 +2427,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="6" t="s">
@@ -2463,14 +2454,14 @@
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A24" s="33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>34</v>
@@ -2492,10 +2483,10 @@
       </c>
       <c r="K24" s="5"/>
       <c r="L24" s="28" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="6" t="s">
@@ -2522,14 +2513,14 @@
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A25" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>34</v>
@@ -2552,11 +2543,11 @@
       <c r="K25" s="5"/>
       <c r="L25" s="28"/>
       <c r="M25" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>34</v>
@@ -2579,10 +2570,10 @@
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A26" s="33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
@@ -2608,10 +2599,10 @@
       </c>
       <c r="K26" s="5"/>
       <c r="L26" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="6" t="s">
@@ -2638,10 +2629,10 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A27" s="33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
@@ -2668,7 +2659,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="28"/>
       <c r="M27" s="15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6" t="s">
@@ -2698,7 +2689,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
@@ -2724,10 +2715,10 @@
       </c>
       <c r="K28" s="5"/>
       <c r="L28" s="28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="6" t="s">
@@ -2755,7 +2746,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A29" s="33"/>
       <c r="B29" s="15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
@@ -2781,14 +2772,14 @@
       </c>
       <c r="K29" s="5"/>
       <c r="L29" s="28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>34</v>
@@ -2811,10 +2802,10 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A30" s="33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
@@ -2840,14 +2831,14 @@
       </c>
       <c r="K30" s="5"/>
       <c r="L30" s="28" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>36</v>
@@ -2871,7 +2862,7 @@
     <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A31" s="33"/>
       <c r="B31" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
@@ -2897,14 +2888,14 @@
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="28" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>35</v>
@@ -2930,7 +2921,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
@@ -2957,7 +2948,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="28"/>
       <c r="M32" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="6" t="s">
@@ -2985,7 +2976,7 @@
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="33"/>
       <c r="B33" s="15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
@@ -3011,10 +3002,10 @@
       </c>
       <c r="K33" s="5"/>
       <c r="L33" s="28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="6" t="s">
@@ -3041,10 +3032,10 @@
     </row>
     <row r="34" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A34" s="33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
@@ -3071,7 +3062,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="28"/>
       <c r="M34" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="6" t="s">
@@ -3098,10 +3089,10 @@
     </row>
     <row r="35" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A35" s="33" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
@@ -3127,10 +3118,10 @@
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="6" t="s">
@@ -3158,11 +3149,11 @@
     <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A36" s="33"/>
       <c r="B36" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>34</v>
@@ -3185,7 +3176,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="6" t="s">
@@ -3215,7 +3206,7 @@
         <v>15</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
@@ -3241,10 +3232,10 @@
       </c>
       <c r="K37" s="5"/>
       <c r="L37" s="28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6" t="s">
@@ -3271,14 +3262,14 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A38" s="33" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>34</v>
@@ -3301,7 +3292,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="28"/>
       <c r="M38" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6" t="s">
@@ -3329,7 +3320,7 @@
     <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="33"/>
       <c r="B39" s="15" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
@@ -3355,14 +3346,14 @@
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>36</v>
@@ -3385,14 +3376,14 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A40" s="33" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>34</v>
@@ -3415,7 +3406,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="28"/>
       <c r="M40" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6" t="s">
@@ -3443,7 +3434,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A41" s="33"/>
       <c r="B41" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
@@ -3469,10 +3460,10 @@
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6" t="s">
@@ -3499,14 +3490,14 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A42" s="33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>34</v>
@@ -3529,7 +3520,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
       <c r="M42" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6" t="s">
@@ -3557,7 +3548,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A43" s="33"/>
       <c r="B43" s="15" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
@@ -3583,10 +3574,10 @@
       </c>
       <c r="K43" s="5"/>
       <c r="L43" s="28" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="6" t="s">
@@ -3616,7 +3607,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
@@ -3643,7 +3634,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6" t="s">
@@ -3671,7 +3662,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A45" s="33"/>
       <c r="B45" s="15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
@@ -3712,11 +3703,11 @@
         <v>33</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>34</v>
@@ -3741,7 +3732,7 @@
         <v>7</v>
       </c>
       <c r="M46" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N46" s="19" t="s">
         <v>24</v>
@@ -3771,7 +3762,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A47" s="33"/>
       <c r="B47" s="15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
@@ -3800,14 +3791,14 @@
         <v>18</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q47" s="6">
         <v>1</v>
@@ -3830,11 +3821,11 @@
         <v>34</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>34</v>
@@ -3859,11 +3850,11 @@
         <v>17</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>36</v>
@@ -3887,7 +3878,7 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A49" s="33"/>
       <c r="B49" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
@@ -3916,11 +3907,11 @@
         <v>19</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P49" s="6" t="s">
         <v>36</v>
@@ -3943,14 +3934,14 @@
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A50" s="33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>34</v>
@@ -3975,11 +3966,11 @@
         <v>20</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P50" s="6" t="s">
         <v>36</v>
@@ -4003,7 +3994,7 @@
     <row r="51" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A51" s="33"/>
       <c r="B51" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
@@ -4032,11 +4023,11 @@
         <v>21</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P51" s="6" t="s">
         <v>37</v>
@@ -4070,14 +4061,14 @@
       <c r="J52" s="9"/>
       <c r="K52" s="8"/>
       <c r="L52" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="P52" s="9" t="s">
         <v>36</v>
@@ -4100,10 +4091,10 @@
     </row>
     <row r="53" spans="1:21" ht="21" x14ac:dyDescent="0.5">
       <c r="A53" s="37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
@@ -4127,7 +4118,7 @@
     </row>
     <row r="54" spans="1:21" ht="21" x14ac:dyDescent="0.5">
       <c r="A54" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="7"/>
@@ -4152,7 +4143,7 @@
     </row>
     <row r="55" spans="1:21" ht="21" x14ac:dyDescent="0.5">
       <c r="A55" s="37" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
@@ -4178,19 +4169,6 @@
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="4"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:U1"/>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C619F0-AA12-4C13-8732-6DC9ACB4B259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE348A97-BD18-4B7F-8F45-08E626CE7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="165">
   <si>
     <t>Present</t>
   </si>
@@ -549,6 +549,9 @@
   </si>
   <si>
     <t>DFF</t>
+  </si>
+  <si>
+    <t>Latest Period</t>
   </si>
 </sst>
 </file>
@@ -1143,22 +1146,22 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="104" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="29.3984375" style="30" customWidth="1"/>
     <col min="2" max="2" width="16.265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.73046875" style="3" customWidth="1"/>
     <col min="4" max="4" width="23.265625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.1328125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="10" width="11.1328125" style="2" customWidth="1"/>
     <col min="11" max="11" width="5.1328125" style="1" customWidth="1"/>
     <col min="12" max="12" width="26" style="30" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.73046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.9296875" style="3" customWidth="1"/>
     <col min="15" max="15" width="21.73046875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.1328125" style="2"/>
     <col min="17" max="21" width="11.1328125" style="2" customWidth="1"/>
@@ -1201,7 +1204,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>25</v>
@@ -1232,7 +1235,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>24</v>
+        <v>164</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>25</v>
@@ -2782,7 +2785,7 @@
         <v>71</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q29" s="6">
         <v>1</v>
@@ -3413,7 +3416,7 @@
         <v>39</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="Q40" s="38">
         <v>1</v>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE348A97-BD18-4B7F-8F45-08E626CE7546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F971634-814E-4E72-9A49-FB0BFBDD9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,9 +461,6 @@
     <t>PCEPILFE</t>
   </si>
   <si>
-    <t>UMCSENT</t>
-  </si>
-  <si>
     <t>T10YIE</t>
   </si>
   <si>
@@ -509,9 +506,6 @@
     <t>CPILFESL</t>
   </si>
   <si>
-    <t>DTWEXBGS</t>
-  </si>
-  <si>
     <t>ECIWAG</t>
   </si>
   <si>
@@ -552,17 +546,24 @@
   </si>
   <si>
     <t>Latest Period</t>
+  </si>
+  <si>
+    <t>MICH</t>
+  </si>
+  <si>
+    <t>TWEXBGSMTH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="#,##0,"/>
+    <numFmt numFmtId="167" formatCode="0\%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -716,7 +717,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -844,6 +845,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1146,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="76" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1204,7 +1208,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>25</v>
@@ -1235,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>25</v>
@@ -1503,19 +1507,19 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
-        <v>1</v>
-      </c>
-      <c r="H7" s="25">
-        <v>1</v>
-      </c>
-      <c r="I7" s="25">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25">
+      <c r="F7" s="44">
+        <v>1</v>
+      </c>
+      <c r="G7" s="44">
+        <v>1</v>
+      </c>
+      <c r="H7" s="44">
+        <v>1</v>
+      </c>
+      <c r="I7" s="44">
+        <v>1</v>
+      </c>
+      <c r="J7" s="44">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
@@ -1698,7 +1702,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="6" t="s">
@@ -1814,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6" t="s">
@@ -1844,7 +1848,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -1901,7 +1905,7 @@
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
@@ -1989,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="6" t="s">
@@ -2260,7 +2264,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="6" t="s">
@@ -2317,7 +2321,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="28"/>
       <c r="M21" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
@@ -2721,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="6" t="s">
@@ -2778,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="6" t="s">
@@ -2808,7 +2812,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
@@ -2837,7 +2841,7 @@
         <v>79</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="6" t="s">
@@ -2865,7 +2869,7 @@
     <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A31" s="33"/>
       <c r="B31" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
@@ -2894,7 +2898,7 @@
         <v>72</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="6" t="s">
@@ -2951,7 +2955,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="28"/>
       <c r="M32" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="6" t="s">
@@ -3008,7 +3012,7 @@
         <v>74</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="6" t="s">
@@ -3065,7 +3069,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="28"/>
       <c r="M34" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="6" t="s">
@@ -3095,7 +3099,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
@@ -3104,27 +3108,27 @@
       <c r="E35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="25">
-        <v>1</v>
-      </c>
-      <c r="G35" s="25">
-        <v>1</v>
-      </c>
-      <c r="H35" s="25">
-        <v>1</v>
-      </c>
-      <c r="I35" s="25">
-        <v>1</v>
-      </c>
-      <c r="J35" s="25">
+      <c r="F35" s="44">
+        <v>1</v>
+      </c>
+      <c r="G35" s="44">
+        <v>1</v>
+      </c>
+      <c r="H35" s="44">
+        <v>1</v>
+      </c>
+      <c r="I35" s="44">
+        <v>1</v>
+      </c>
+      <c r="J35" s="44">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="6" t="s">
@@ -3179,7 +3183,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="6" t="s">
@@ -3238,7 +3242,7 @@
         <v>75</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6" t="s">
@@ -3295,7 +3299,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="28"/>
       <c r="M38" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6" t="s">
@@ -3352,14 +3356,14 @@
         <v>76</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6" t="s">
         <v>77</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="6">
         <v>1</v>
@@ -3377,12 +3381,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A40" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
@@ -3409,14 +3413,14 @@
       <c r="K40" s="5"/>
       <c r="L40" s="28"/>
       <c r="M40" s="15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6" t="s">
         <v>39</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q40" s="38">
         <v>1</v>
@@ -3437,7 +3441,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A41" s="33"/>
       <c r="B41" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
@@ -3466,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6" t="s">
@@ -3496,7 +3500,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
@@ -3523,7 +3527,7 @@
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
       <c r="M42" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6" t="s">
@@ -3551,7 +3555,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A43" s="33"/>
       <c r="B43" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
@@ -3580,7 +3584,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="6" t="s">
@@ -3637,7 +3641,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6" t="s">
@@ -3706,7 +3710,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
@@ -3765,7 +3769,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A47" s="33"/>
       <c r="B47" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
@@ -3794,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="6" t="s">
@@ -3824,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
@@ -3853,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="6" t="s">
@@ -3881,7 +3885,7 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A49" s="33"/>
       <c r="B49" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
@@ -3910,7 +3914,7 @@
         <v>19</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="6" t="s">
@@ -3940,7 +3944,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
@@ -3969,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="6" t="s">
@@ -3997,7 +4001,7 @@
     <row r="51" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A51" s="33"/>
       <c r="B51" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
@@ -4026,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="6" t="s">
@@ -4067,7 +4071,7 @@
         <v>60</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="9" t="s">
@@ -4097,7 +4101,7 @@
         <v>70</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F971634-814E-4E72-9A49-FB0BFBDD9401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CBBCB-2A06-406B-8618-B1D967D335F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -837,6 +837,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -845,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="76" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1176,29 +1176,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
     </row>
     <row r="2" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32" t="s">
@@ -1507,19 +1507,19 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="44">
-        <v>1</v>
-      </c>
-      <c r="G7" s="44">
-        <v>1</v>
-      </c>
-      <c r="H7" s="44">
-        <v>1</v>
-      </c>
-      <c r="I7" s="44">
-        <v>1</v>
-      </c>
-      <c r="J7" s="44">
+      <c r="F7" s="41">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41">
+        <v>1</v>
+      </c>
+      <c r="I7" s="41">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
@@ -3108,19 +3108,19 @@
       <c r="E35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="44">
-        <v>1</v>
-      </c>
-      <c r="G35" s="44">
-        <v>1</v>
-      </c>
-      <c r="H35" s="44">
-        <v>1</v>
-      </c>
-      <c r="I35" s="44">
-        <v>1</v>
-      </c>
-      <c r="J35" s="44">
+      <c r="F35" s="41">
+        <v>1</v>
+      </c>
+      <c r="G35" s="41">
+        <v>1</v>
+      </c>
+      <c r="H35" s="41">
+        <v>1</v>
+      </c>
+      <c r="I35" s="41">
+        <v>1</v>
+      </c>
+      <c r="J35" s="41">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
@@ -3154,7 +3154,9 @@
       </c>
     </row>
     <row r="36" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A36" s="33"/>
+      <c r="A36" s="33" t="s">
+        <v>15</v>
+      </c>
       <c r="B36" s="15" t="s">
         <v>118</v>
       </c>
@@ -3209,9 +3211,7 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A37" s="33" t="s">
-        <v>15</v>
-      </c>
+      <c r="A37" s="33"/>
       <c r="B37" s="15" t="s">
         <v>118</v>
       </c>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CBBCB-2A06-406B-8618-B1D967D335F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E658D6-8E77-4BFC-93ED-8F4BC840D4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>Macro Dashboard</t>
   </si>
   <si>
-    <t>Mike Aguilar | mike.aguilar@duke.edu | www.market-observatory.com</t>
-  </si>
-  <si>
     <t>Source: All data collected via FRED from the St. Louis Fed</t>
   </si>
   <si>
@@ -552,6 +549,10 @@
   </si>
   <si>
     <t>TWEXBGSMTH</t>
+  </si>
+  <si>
+    <t>Mike Aguilar | mike.aguilar@duke.edu |
+Jacky Yang    | jacky.yang@duke.edu     | www.market-observatory.com</t>
   </si>
 </sst>
 </file>
@@ -603,18 +604,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -819,9 +814,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -848,6 +840,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1150,8 +1145,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1176,29 +1171,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="44"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="42"/>
+      <c r="R1" s="42"/>
+      <c r="S1" s="42"/>
+      <c r="T1" s="42"/>
+      <c r="U1" s="43"/>
     </row>
     <row r="2" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32" t="s">
@@ -1208,7 +1203,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>25</v>
@@ -1239,7 +1234,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>25</v>
@@ -1268,7 +1263,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -1297,7 +1292,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="6" t="s">
@@ -1325,7 +1320,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="34"/>
       <c r="B4" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
@@ -1352,7 +1347,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="28"/>
       <c r="M4" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="6" t="s">
@@ -1361,16 +1356,16 @@
       <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="38">
-        <v>1</v>
-      </c>
-      <c r="R4" s="38">
-        <v>1</v>
-      </c>
-      <c r="S4" s="38">
-        <v>1</v>
-      </c>
-      <c r="T4" s="38">
+      <c r="Q4" s="37">
+        <v>1</v>
+      </c>
+      <c r="R4" s="37">
+        <v>1</v>
+      </c>
+      <c r="S4" s="37">
+        <v>1</v>
+      </c>
+      <c r="T4" s="37">
         <v>1</v>
       </c>
       <c r="U4" s="23">
@@ -1382,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -1411,7 +1406,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="6" t="s">
@@ -1439,7 +1434,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="33"/>
       <c r="B6" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -1468,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="6" t="s">
@@ -1498,7 +1493,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
@@ -1507,19 +1502,19 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="41">
-        <v>1</v>
-      </c>
-      <c r="G7" s="41">
-        <v>1</v>
-      </c>
-      <c r="H7" s="41">
-        <v>1</v>
-      </c>
-      <c r="I7" s="41">
-        <v>1</v>
-      </c>
-      <c r="J7" s="41">
+      <c r="F7" s="40">
+        <v>1</v>
+      </c>
+      <c r="G7" s="40">
+        <v>1</v>
+      </c>
+      <c r="H7" s="40">
+        <v>1</v>
+      </c>
+      <c r="I7" s="40">
+        <v>1</v>
+      </c>
+      <c r="J7" s="40">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
@@ -1527,7 +1522,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="6" t="s">
@@ -1586,7 +1581,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="6" t="s">
@@ -1616,7 +1611,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
@@ -1645,7 +1640,7 @@
         <v>45</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="6" t="s">
@@ -1673,7 +1668,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="33"/>
       <c r="B10" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
@@ -1702,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="6" t="s">
@@ -1732,7 +1727,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
@@ -1761,7 +1756,7 @@
         <v>46</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="6" t="s">
@@ -1787,9 +1782,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="33"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
@@ -1818,7 +1813,7 @@
         <v>82</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6" t="s">
@@ -1844,11 +1839,11 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="44" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -1877,7 +1872,7 @@
         <v>42</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="6" t="s">
@@ -1903,9 +1898,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A14" s="34"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
@@ -1934,7 +1929,7 @@
         <v>48</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="6" t="s">
@@ -1960,11 +1955,11 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="44" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -1993,7 +1988,7 @@
         <v>84</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="6" t="s">
@@ -2021,7 +2016,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A16" s="33"/>
       <c r="B16" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2062,7 +2057,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
@@ -2121,7 +2116,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A18" s="33"/>
       <c r="B18" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -2150,7 +2145,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="6" t="s">
@@ -2159,16 +2154,16 @@
       <c r="P18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="38">
-        <v>1</v>
-      </c>
-      <c r="R18" s="38">
-        <v>1</v>
-      </c>
-      <c r="S18" s="38">
-        <v>1</v>
-      </c>
-      <c r="T18" s="38">
+      <c r="Q18" s="37">
+        <v>1</v>
+      </c>
+      <c r="R18" s="37">
+        <v>1</v>
+      </c>
+      <c r="S18" s="37">
+        <v>1</v>
+      </c>
+      <c r="T18" s="37">
         <v>1</v>
       </c>
       <c r="U18" s="23">
@@ -2180,7 +2175,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
@@ -2207,7 +2202,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="28"/>
       <c r="M19" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="6" t="s">
@@ -2216,16 +2211,16 @@
       <c r="P19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="38">
-        <v>1</v>
-      </c>
-      <c r="R19" s="38">
-        <v>1</v>
-      </c>
-      <c r="S19" s="38">
-        <v>1</v>
-      </c>
-      <c r="T19" s="38">
+      <c r="Q19" s="37">
+        <v>1</v>
+      </c>
+      <c r="R19" s="37">
+        <v>1</v>
+      </c>
+      <c r="S19" s="37">
+        <v>1</v>
+      </c>
+      <c r="T19" s="37">
         <v>1</v>
       </c>
       <c r="U19" s="23">
@@ -2235,7 +2230,7 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -2264,7 +2259,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="6" t="s">
@@ -2273,16 +2268,16 @@
       <c r="P20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="38">
-        <v>1</v>
-      </c>
-      <c r="R20" s="38">
-        <v>1</v>
-      </c>
-      <c r="S20" s="38">
-        <v>1</v>
-      </c>
-      <c r="T20" s="38">
+      <c r="Q20" s="37">
+        <v>1</v>
+      </c>
+      <c r="R20" s="37">
+        <v>1</v>
+      </c>
+      <c r="S20" s="37">
+        <v>1</v>
+      </c>
+      <c r="T20" s="37">
         <v>1</v>
       </c>
       <c r="U20" s="23">
@@ -2294,7 +2289,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
@@ -2321,7 +2316,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="28"/>
       <c r="M21" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
@@ -2330,16 +2325,16 @@
       <c r="P21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="38">
-        <v>1</v>
-      </c>
-      <c r="R21" s="38">
-        <v>1</v>
-      </c>
-      <c r="S21" s="38">
-        <v>1</v>
-      </c>
-      <c r="T21" s="38">
+      <c r="Q21" s="37">
+        <v>1</v>
+      </c>
+      <c r="R21" s="37">
+        <v>1</v>
+      </c>
+      <c r="S21" s="37">
+        <v>1</v>
+      </c>
+      <c r="T21" s="37">
         <v>1</v>
       </c>
       <c r="U21" s="23">
@@ -2380,7 +2375,7 @@
         <v>38</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="6" t="s">
@@ -2389,16 +2384,16 @@
       <c r="P22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="38">
-        <v>1</v>
-      </c>
-      <c r="R22" s="38">
-        <v>1</v>
-      </c>
-      <c r="S22" s="38">
-        <v>1</v>
-      </c>
-      <c r="T22" s="38">
+      <c r="Q22" s="37">
+        <v>1</v>
+      </c>
+      <c r="R22" s="37">
+        <v>1</v>
+      </c>
+      <c r="S22" s="37">
+        <v>1</v>
+      </c>
+      <c r="T22" s="37">
         <v>1</v>
       </c>
       <c r="U22" s="23">
@@ -2434,7 +2429,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="6" t="s">
@@ -2443,16 +2438,16 @@
       <c r="P23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="38">
-        <v>1</v>
-      </c>
-      <c r="R23" s="38">
-        <v>1</v>
-      </c>
-      <c r="S23" s="38">
-        <v>1</v>
-      </c>
-      <c r="T23" s="38">
+      <c r="Q23" s="37">
+        <v>1</v>
+      </c>
+      <c r="R23" s="37">
+        <v>1</v>
+      </c>
+      <c r="S23" s="37">
+        <v>1</v>
+      </c>
+      <c r="T23" s="37">
         <v>1</v>
       </c>
       <c r="U23" s="23">
@@ -2464,7 +2459,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
@@ -2473,19 +2468,19 @@
       <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="38">
-        <v>1</v>
-      </c>
-      <c r="G24" s="38">
-        <v>1</v>
-      </c>
-      <c r="H24" s="38">
-        <v>1</v>
-      </c>
-      <c r="I24" s="38">
-        <v>1</v>
-      </c>
-      <c r="J24" s="38">
+      <c r="F24" s="37">
+        <v>1</v>
+      </c>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
+      <c r="H24" s="37">
+        <v>1</v>
+      </c>
+      <c r="I24" s="37">
+        <v>1</v>
+      </c>
+      <c r="J24" s="37">
         <v>1</v>
       </c>
       <c r="K24" s="5"/>
@@ -2493,7 +2488,7 @@
         <v>57</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="6" t="s">
@@ -2502,16 +2497,16 @@
       <c r="P24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="38">
-        <v>1</v>
-      </c>
-      <c r="R24" s="38">
-        <v>1</v>
-      </c>
-      <c r="S24" s="38">
-        <v>1</v>
-      </c>
-      <c r="T24" s="38">
+      <c r="Q24" s="37">
+        <v>1</v>
+      </c>
+      <c r="R24" s="37">
+        <v>1</v>
+      </c>
+      <c r="S24" s="37">
+        <v>1</v>
+      </c>
+      <c r="T24" s="37">
         <v>1</v>
       </c>
       <c r="U24" s="23">
@@ -2523,7 +2518,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
@@ -2532,25 +2527,25 @@
       <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="38">
-        <v>1</v>
-      </c>
-      <c r="G25" s="38">
-        <v>1</v>
-      </c>
-      <c r="H25" s="38">
-        <v>1</v>
-      </c>
-      <c r="I25" s="38">
-        <v>1</v>
-      </c>
-      <c r="J25" s="38">
+      <c r="F25" s="37">
+        <v>1</v>
+      </c>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
+      <c r="H25" s="37">
+        <v>1</v>
+      </c>
+      <c r="I25" s="37">
+        <v>1</v>
+      </c>
+      <c r="J25" s="37">
         <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="28"/>
       <c r="M25" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6" t="s">
@@ -2559,16 +2554,16 @@
       <c r="P25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="38">
-        <v>1</v>
-      </c>
-      <c r="R25" s="38">
-        <v>1</v>
-      </c>
-      <c r="S25" s="38">
-        <v>1</v>
-      </c>
-      <c r="T25" s="38">
+      <c r="Q25" s="37">
+        <v>1</v>
+      </c>
+      <c r="R25" s="37">
+        <v>1</v>
+      </c>
+      <c r="S25" s="37">
+        <v>1</v>
+      </c>
+      <c r="T25" s="37">
         <v>1</v>
       </c>
       <c r="U25" s="23">
@@ -2580,7 +2575,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
@@ -2589,19 +2584,19 @@
       <c r="E26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="38">
-        <v>1</v>
-      </c>
-      <c r="G26" s="38">
-        <v>1</v>
-      </c>
-      <c r="H26" s="38">
-        <v>1</v>
-      </c>
-      <c r="I26" s="38">
-        <v>1</v>
-      </c>
-      <c r="J26" s="38">
+      <c r="F26" s="37">
+        <v>1</v>
+      </c>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
+      <c r="H26" s="37">
+        <v>1</v>
+      </c>
+      <c r="I26" s="37">
+        <v>1</v>
+      </c>
+      <c r="J26" s="37">
         <v>1</v>
       </c>
       <c r="K26" s="5"/>
@@ -2609,7 +2604,7 @@
         <v>58</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="6" t="s">
@@ -2618,16 +2613,16 @@
       <c r="P26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="38">
-        <v>1</v>
-      </c>
-      <c r="R26" s="38">
-        <v>1</v>
-      </c>
-      <c r="S26" s="38">
-        <v>1</v>
-      </c>
-      <c r="T26" s="38">
+      <c r="Q26" s="37">
+        <v>1</v>
+      </c>
+      <c r="R26" s="37">
+        <v>1</v>
+      </c>
+      <c r="S26" s="37">
+        <v>1</v>
+      </c>
+      <c r="T26" s="37">
         <v>1</v>
       </c>
       <c r="U26" s="23">
@@ -2639,7 +2634,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
@@ -2648,25 +2643,25 @@
       <c r="E27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="38">
-        <v>1</v>
-      </c>
-      <c r="G27" s="38">
-        <v>1</v>
-      </c>
-      <c r="H27" s="38">
-        <v>1</v>
-      </c>
-      <c r="I27" s="38">
-        <v>1</v>
-      </c>
-      <c r="J27" s="38">
+      <c r="F27" s="37">
+        <v>1</v>
+      </c>
+      <c r="G27" s="37">
+        <v>1</v>
+      </c>
+      <c r="H27" s="37">
+        <v>1</v>
+      </c>
+      <c r="I27" s="37">
+        <v>1</v>
+      </c>
+      <c r="J27" s="37">
         <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="28"/>
       <c r="M27" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6" t="s">
@@ -2675,16 +2670,16 @@
       <c r="P27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q27" s="38">
-        <v>1</v>
-      </c>
-      <c r="R27" s="38">
-        <v>1</v>
-      </c>
-      <c r="S27" s="38">
-        <v>1</v>
-      </c>
-      <c r="T27" s="38">
+      <c r="Q27" s="37">
+        <v>1</v>
+      </c>
+      <c r="R27" s="37">
+        <v>1</v>
+      </c>
+      <c r="S27" s="37">
+        <v>1</v>
+      </c>
+      <c r="T27" s="37">
         <v>1</v>
       </c>
       <c r="U27" s="23">
@@ -2696,7 +2691,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
@@ -2725,7 +2720,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="6" t="s">
@@ -2753,7 +2748,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A29" s="33"/>
       <c r="B29" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
@@ -2782,7 +2777,7 @@
         <v>78</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="6" t="s">
@@ -2812,7 +2807,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
@@ -2841,7 +2836,7 @@
         <v>79</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="6" t="s">
@@ -2869,7 +2864,7 @@
     <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A31" s="33"/>
       <c r="B31" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
@@ -2898,7 +2893,7 @@
         <v>72</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="6" t="s">
@@ -2907,16 +2902,16 @@
       <c r="P31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="38">
-        <v>1</v>
-      </c>
-      <c r="R31" s="38">
-        <v>1</v>
-      </c>
-      <c r="S31" s="38">
-        <v>1</v>
-      </c>
-      <c r="T31" s="38">
+      <c r="Q31" s="37">
+        <v>1</v>
+      </c>
+      <c r="R31" s="37">
+        <v>1</v>
+      </c>
+      <c r="S31" s="37">
+        <v>1</v>
+      </c>
+      <c r="T31" s="37">
         <v>1</v>
       </c>
       <c r="U31" s="23">
@@ -2928,7 +2923,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
@@ -2955,7 +2950,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="28"/>
       <c r="M32" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="6" t="s">
@@ -2964,16 +2959,16 @@
       <c r="P32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="38">
-        <v>1</v>
-      </c>
-      <c r="R32" s="38">
-        <v>1</v>
-      </c>
-      <c r="S32" s="38">
-        <v>1</v>
-      </c>
-      <c r="T32" s="38">
+      <c r="Q32" s="37">
+        <v>1</v>
+      </c>
+      <c r="R32" s="37">
+        <v>1</v>
+      </c>
+      <c r="S32" s="37">
+        <v>1</v>
+      </c>
+      <c r="T32" s="37">
         <v>1</v>
       </c>
       <c r="U32" s="23">
@@ -2983,7 +2978,7 @@
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="33"/>
       <c r="B33" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
@@ -3012,7 +3007,7 @@
         <v>74</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="6" t="s">
@@ -3021,16 +3016,16 @@
       <c r="P33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="38">
-        <v>1</v>
-      </c>
-      <c r="R33" s="38">
-        <v>1</v>
-      </c>
-      <c r="S33" s="38">
-        <v>1</v>
-      </c>
-      <c r="T33" s="38">
+      <c r="Q33" s="37">
+        <v>1</v>
+      </c>
+      <c r="R33" s="37">
+        <v>1</v>
+      </c>
+      <c r="S33" s="37">
+        <v>1</v>
+      </c>
+      <c r="T33" s="37">
         <v>1</v>
       </c>
       <c r="U33" s="23">
@@ -3042,7 +3037,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
@@ -3069,7 +3064,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="28"/>
       <c r="M34" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="6" t="s">
@@ -3078,16 +3073,16 @@
       <c r="P34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="38">
-        <v>1</v>
-      </c>
-      <c r="R34" s="38">
-        <v>1</v>
-      </c>
-      <c r="S34" s="38">
-        <v>1</v>
-      </c>
-      <c r="T34" s="38">
+      <c r="Q34" s="37">
+        <v>1</v>
+      </c>
+      <c r="R34" s="37">
+        <v>1</v>
+      </c>
+      <c r="S34" s="37">
+        <v>1</v>
+      </c>
+      <c r="T34" s="37">
         <v>1</v>
       </c>
       <c r="U34" s="23">
@@ -3099,7 +3094,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
@@ -3108,27 +3103,27 @@
       <c r="E35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="41">
-        <v>1</v>
-      </c>
-      <c r="G35" s="41">
-        <v>1</v>
-      </c>
-      <c r="H35" s="41">
-        <v>1</v>
-      </c>
-      <c r="I35" s="41">
-        <v>1</v>
-      </c>
-      <c r="J35" s="41">
+      <c r="F35" s="40">
+        <v>1</v>
+      </c>
+      <c r="G35" s="40">
+        <v>1</v>
+      </c>
+      <c r="H35" s="40">
+        <v>1</v>
+      </c>
+      <c r="I35" s="40">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="6" t="s">
@@ -3137,16 +3132,16 @@
       <c r="P35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="38">
-        <v>1</v>
-      </c>
-      <c r="R35" s="38">
-        <v>1</v>
-      </c>
-      <c r="S35" s="38">
-        <v>1</v>
-      </c>
-      <c r="T35" s="38">
+      <c r="Q35" s="37">
+        <v>1</v>
+      </c>
+      <c r="R35" s="37">
+        <v>1</v>
+      </c>
+      <c r="S35" s="37">
+        <v>1</v>
+      </c>
+      <c r="T35" s="37">
         <v>1</v>
       </c>
       <c r="U35" s="23">
@@ -3158,7 +3153,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
@@ -3185,7 +3180,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="6" t="s">
@@ -3194,16 +3189,16 @@
       <c r="P36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="38">
-        <v>1</v>
-      </c>
-      <c r="R36" s="38">
-        <v>1</v>
-      </c>
-      <c r="S36" s="38">
-        <v>1</v>
-      </c>
-      <c r="T36" s="38">
+      <c r="Q36" s="37">
+        <v>1</v>
+      </c>
+      <c r="R36" s="37">
+        <v>1</v>
+      </c>
+      <c r="S36" s="37">
+        <v>1</v>
+      </c>
+      <c r="T36" s="37">
         <v>1</v>
       </c>
       <c r="U36" s="23">
@@ -3213,7 +3208,7 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A37" s="33"/>
       <c r="B37" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
@@ -3242,7 +3237,7 @@
         <v>75</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6" t="s">
@@ -3251,16 +3246,16 @@
       <c r="P37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q37" s="38">
-        <v>1</v>
-      </c>
-      <c r="R37" s="38">
-        <v>1</v>
-      </c>
-      <c r="S37" s="38">
-        <v>1</v>
-      </c>
-      <c r="T37" s="38">
+      <c r="Q37" s="37">
+        <v>1</v>
+      </c>
+      <c r="R37" s="37">
+        <v>1</v>
+      </c>
+      <c r="S37" s="37">
+        <v>1</v>
+      </c>
+      <c r="T37" s="37">
         <v>1</v>
       </c>
       <c r="U37" s="23">
@@ -3272,7 +3267,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
@@ -3299,7 +3294,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="28"/>
       <c r="M38" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6" t="s">
@@ -3308,16 +3303,16 @@
       <c r="P38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="38">
-        <v>1</v>
-      </c>
-      <c r="R38" s="38">
-        <v>1</v>
-      </c>
-      <c r="S38" s="38">
-        <v>1</v>
-      </c>
-      <c r="T38" s="38">
+      <c r="Q38" s="37">
+        <v>1</v>
+      </c>
+      <c r="R38" s="37">
+        <v>1</v>
+      </c>
+      <c r="S38" s="37">
+        <v>1</v>
+      </c>
+      <c r="T38" s="37">
         <v>1</v>
       </c>
       <c r="U38" s="23">
@@ -3327,7 +3322,7 @@
     <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="33"/>
       <c r="B39" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
@@ -3336,19 +3331,19 @@
       <c r="E39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="38">
-        <v>1</v>
-      </c>
-      <c r="G39" s="38">
-        <v>1</v>
-      </c>
-      <c r="H39" s="38">
-        <v>1</v>
-      </c>
-      <c r="I39" s="38">
-        <v>1</v>
-      </c>
-      <c r="J39" s="38">
+      <c r="F39" s="37">
+        <v>1</v>
+      </c>
+      <c r="G39" s="37">
+        <v>1</v>
+      </c>
+      <c r="H39" s="37">
+        <v>1</v>
+      </c>
+      <c r="I39" s="37">
+        <v>1</v>
+      </c>
+      <c r="J39" s="37">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
@@ -3356,7 +3351,7 @@
         <v>76</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6" t="s">
@@ -3386,7 +3381,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
@@ -3413,7 +3408,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="28"/>
       <c r="M40" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6" t="s">
@@ -3422,16 +3417,16 @@
       <c r="P40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" s="38">
-        <v>1</v>
-      </c>
-      <c r="R40" s="38">
-        <v>1</v>
-      </c>
-      <c r="S40" s="38">
-        <v>1</v>
-      </c>
-      <c r="T40" s="38">
+      <c r="Q40" s="37">
+        <v>1</v>
+      </c>
+      <c r="R40" s="37">
+        <v>1</v>
+      </c>
+      <c r="S40" s="37">
+        <v>1</v>
+      </c>
+      <c r="T40" s="37">
         <v>1</v>
       </c>
       <c r="U40" s="23">
@@ -3441,7 +3436,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A41" s="33"/>
       <c r="B41" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
@@ -3450,19 +3445,19 @@
       <c r="E41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="38">
-        <v>1</v>
-      </c>
-      <c r="G41" s="38">
-        <v>1</v>
-      </c>
-      <c r="H41" s="38">
-        <v>1</v>
-      </c>
-      <c r="I41" s="38">
-        <v>1</v>
-      </c>
-      <c r="J41" s="38">
+      <c r="F41" s="37">
+        <v>1</v>
+      </c>
+      <c r="G41" s="37">
+        <v>1</v>
+      </c>
+      <c r="H41" s="37">
+        <v>1</v>
+      </c>
+      <c r="I41" s="37">
+        <v>1</v>
+      </c>
+      <c r="J41" s="37">
         <v>1</v>
       </c>
       <c r="K41" s="5"/>
@@ -3470,7 +3465,7 @@
         <v>54</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6" t="s">
@@ -3479,16 +3474,16 @@
       <c r="P41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q41" s="38">
-        <v>1</v>
-      </c>
-      <c r="R41" s="38">
-        <v>1</v>
-      </c>
-      <c r="S41" s="38">
-        <v>1</v>
-      </c>
-      <c r="T41" s="38">
+      <c r="Q41" s="37">
+        <v>1</v>
+      </c>
+      <c r="R41" s="37">
+        <v>1</v>
+      </c>
+      <c r="S41" s="37">
+        <v>1</v>
+      </c>
+      <c r="T41" s="37">
         <v>1</v>
       </c>
       <c r="U41" s="23">
@@ -3500,7 +3495,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
@@ -3509,25 +3504,25 @@
       <c r="E42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="38">
         <v>1000</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <v>1000</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H42" s="38">
         <v>1000</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="38">
         <v>1000</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J42" s="38">
         <v>1000</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
       <c r="M42" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6" t="s">
@@ -3536,16 +3531,16 @@
       <c r="P42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" s="38">
-        <v>1</v>
-      </c>
-      <c r="R42" s="38">
-        <v>1</v>
-      </c>
-      <c r="S42" s="38">
-        <v>1</v>
-      </c>
-      <c r="T42" s="38">
+      <c r="Q42" s="37">
+        <v>1</v>
+      </c>
+      <c r="R42" s="37">
+        <v>1</v>
+      </c>
+      <c r="S42" s="37">
+        <v>1</v>
+      </c>
+      <c r="T42" s="37">
         <v>1</v>
       </c>
       <c r="U42" s="23">
@@ -3555,7 +3550,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A43" s="33"/>
       <c r="B43" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
@@ -3564,19 +3559,19 @@
       <c r="E43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="38">
-        <v>1</v>
-      </c>
-      <c r="G43" s="38">
-        <v>1</v>
-      </c>
-      <c r="H43" s="38">
-        <v>1</v>
-      </c>
-      <c r="I43" s="38">
-        <v>1</v>
-      </c>
-      <c r="J43" s="38">
+      <c r="F43" s="37">
+        <v>1</v>
+      </c>
+      <c r="G43" s="37">
+        <v>1</v>
+      </c>
+      <c r="H43" s="37">
+        <v>1</v>
+      </c>
+      <c r="I43" s="37">
+        <v>1</v>
+      </c>
+      <c r="J43" s="37">
         <v>1</v>
       </c>
       <c r="K43" s="5"/>
@@ -3584,7 +3579,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="6" t="s">
@@ -3593,16 +3588,16 @@
       <c r="P43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="38">
-        <v>1</v>
-      </c>
-      <c r="R43" s="38">
-        <v>1</v>
-      </c>
-      <c r="S43" s="38">
-        <v>1</v>
-      </c>
-      <c r="T43" s="38">
+      <c r="Q43" s="37">
+        <v>1</v>
+      </c>
+      <c r="R43" s="37">
+        <v>1</v>
+      </c>
+      <c r="S43" s="37">
+        <v>1</v>
+      </c>
+      <c r="T43" s="37">
         <v>1</v>
       </c>
       <c r="U43" s="23">
@@ -3614,7 +3609,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
@@ -3641,7 +3636,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6" t="s">
@@ -3650,16 +3645,16 @@
       <c r="P44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="38">
-        <v>1</v>
-      </c>
-      <c r="R44" s="38">
-        <v>1</v>
-      </c>
-      <c r="S44" s="38">
-        <v>1</v>
-      </c>
-      <c r="T44" s="38">
+      <c r="Q44" s="37">
+        <v>1</v>
+      </c>
+      <c r="R44" s="37">
+        <v>1</v>
+      </c>
+      <c r="S44" s="37">
+        <v>1</v>
+      </c>
+      <c r="T44" s="37">
         <v>1</v>
       </c>
       <c r="U44" s="23">
@@ -3669,7 +3664,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A45" s="33"/>
       <c r="B45" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
@@ -3678,19 +3673,19 @@
       <c r="E45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="38">
-        <v>1</v>
-      </c>
-      <c r="G45" s="38">
-        <v>1</v>
-      </c>
-      <c r="H45" s="38">
-        <v>1</v>
-      </c>
-      <c r="I45" s="38">
-        <v>1</v>
-      </c>
-      <c r="J45" s="38">
+      <c r="F45" s="37">
+        <v>1</v>
+      </c>
+      <c r="G45" s="37">
+        <v>1</v>
+      </c>
+      <c r="H45" s="37">
+        <v>1</v>
+      </c>
+      <c r="I45" s="37">
+        <v>1</v>
+      </c>
+      <c r="J45" s="37">
         <v>1</v>
       </c>
       <c r="K45" s="5"/>
@@ -3710,7 +3705,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
@@ -3769,7 +3764,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A47" s="33"/>
       <c r="B47" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
@@ -3778,19 +3773,19 @@
       <c r="E47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="38">
-        <v>1</v>
-      </c>
-      <c r="G47" s="38">
-        <v>1</v>
-      </c>
-      <c r="H47" s="38">
-        <v>1</v>
-      </c>
-      <c r="I47" s="38">
-        <v>1</v>
-      </c>
-      <c r="J47" s="38">
+      <c r="F47" s="37">
+        <v>1</v>
+      </c>
+      <c r="G47" s="37">
+        <v>1</v>
+      </c>
+      <c r="H47" s="37">
+        <v>1</v>
+      </c>
+      <c r="I47" s="37">
+        <v>1</v>
+      </c>
+      <c r="J47" s="37">
         <v>1</v>
       </c>
       <c r="K47" s="5"/>
@@ -3798,7 +3793,7 @@
         <v>18</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="6" t="s">
@@ -3828,7 +3823,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
@@ -3857,7 +3852,7 @@
         <v>17</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="6" t="s">
@@ -3885,7 +3880,7 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A49" s="33"/>
       <c r="B49" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
@@ -3894,19 +3889,19 @@
       <c r="E49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="38">
-        <v>1</v>
-      </c>
-      <c r="G49" s="38">
-        <v>1</v>
-      </c>
-      <c r="H49" s="38">
-        <v>1</v>
-      </c>
-      <c r="I49" s="38">
-        <v>1</v>
-      </c>
-      <c r="J49" s="38">
+      <c r="F49" s="37">
+        <v>1</v>
+      </c>
+      <c r="G49" s="37">
+        <v>1</v>
+      </c>
+      <c r="H49" s="37">
+        <v>1</v>
+      </c>
+      <c r="I49" s="37">
+        <v>1</v>
+      </c>
+      <c r="J49" s="37">
         <v>1</v>
       </c>
       <c r="K49" s="5"/>
@@ -3914,7 +3909,7 @@
         <v>19</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="6" t="s">
@@ -3944,7 +3939,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
@@ -3973,7 +3968,7 @@
         <v>20</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="6" t="s">
@@ -4001,7 +3996,7 @@
     <row r="51" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A51" s="33"/>
       <c r="B51" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
@@ -4010,19 +4005,19 @@
       <c r="E51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="38">
-        <v>1</v>
-      </c>
-      <c r="G51" s="38">
-        <v>1</v>
-      </c>
-      <c r="H51" s="38">
-        <v>1</v>
-      </c>
-      <c r="I51" s="38">
-        <v>1</v>
-      </c>
-      <c r="J51" s="38">
+      <c r="F51" s="37">
+        <v>1</v>
+      </c>
+      <c r="G51" s="37">
+        <v>1</v>
+      </c>
+      <c r="H51" s="37">
+        <v>1</v>
+      </c>
+      <c r="I51" s="37">
+        <v>1</v>
+      </c>
+      <c r="J51" s="37">
         <v>1</v>
       </c>
       <c r="K51" s="5"/>
@@ -4030,7 +4025,7 @@
         <v>21</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="6" t="s">
@@ -4056,7 +4051,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="36"/>
+      <c r="A52" s="35"/>
       <c r="B52" s="17"/>
       <c r="C52" s="20"/>
       <c r="D52" s="9"/>
@@ -4071,7 +4066,7 @@
         <v>60</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="9" t="s">
@@ -4097,11 +4092,11 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="21" x14ac:dyDescent="0.5">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="40" t="s">
-        <v>160</v>
+      <c r="B53" s="39" t="s">
+        <v>159</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
@@ -4124,8 +4119,8 @@
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" ht="21" x14ac:dyDescent="0.5">
-      <c r="A54" s="37" t="s">
-        <v>101</v>
+      <c r="A54" s="36" t="s">
+        <v>100</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="7"/>
@@ -4148,9 +4143,9 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
-    <row r="55" spans="1:21" ht="21" x14ac:dyDescent="0.5">
-      <c r="A55" s="37" t="s">
-        <v>100</v>
+    <row r="55" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A55" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>

--- a/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
+++ b/MacroDashboard Versions/Economic Dashboard V1-Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\Duke Research Opportunity\Prof. Aguilar Macro Dashboard\MacroDashBoard\MacroDashboard Versions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E658D6-8E77-4BFC-93ED-8F4BC840D4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366CBBCB-2A06-406B-8618-B1D967D335F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,6 +359,9 @@
     <t>Macro Dashboard</t>
   </si>
   <si>
+    <t>Mike Aguilar | mike.aguilar@duke.edu | www.market-observatory.com</t>
+  </si>
+  <si>
     <t>Source: All data collected via FRED from the St. Louis Fed</t>
   </si>
   <si>
@@ -549,10 +552,6 @@
   </si>
   <si>
     <t>TWEXBGSMTH</t>
-  </si>
-  <si>
-    <t>Mike Aguilar | mike.aguilar@duke.edu |
-Jacky Yang    | jacky.yang@duke.edu     | www.market-observatory.com</t>
   </si>
 </sst>
 </file>
@@ -604,12 +603,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -814,6 +819,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -840,9 +848,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1145,8 +1150,8 @@
   </sheetPr>
   <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="76" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -1171,29 +1176,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="42"/>
-      <c r="U1" s="43"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="44"/>
     </row>
     <row r="2" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32" t="s">
@@ -1203,7 +1208,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>25</v>
@@ -1234,7 +1239,7 @@
         <v>80</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O2" s="10" t="s">
         <v>25</v>
@@ -1263,7 +1268,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="6" t="s">
@@ -1292,7 +1297,7 @@
         <v>41</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N3" s="7"/>
       <c r="O3" s="6" t="s">
@@ -1320,7 +1325,7 @@
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A4" s="34"/>
       <c r="B4" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="6" t="s">
@@ -1347,7 +1352,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="28"/>
       <c r="M4" s="15" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="6" t="s">
@@ -1356,16 +1361,16 @@
       <c r="P4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="37">
-        <v>1</v>
-      </c>
-      <c r="R4" s="37">
-        <v>1</v>
-      </c>
-      <c r="S4" s="37">
-        <v>1</v>
-      </c>
-      <c r="T4" s="37">
+      <c r="Q4" s="38">
+        <v>1</v>
+      </c>
+      <c r="R4" s="38">
+        <v>1</v>
+      </c>
+      <c r="S4" s="38">
+        <v>1</v>
+      </c>
+      <c r="T4" s="38">
         <v>1</v>
       </c>
       <c r="U4" s="23">
@@ -1377,7 +1382,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="6" t="s">
@@ -1406,7 +1411,7 @@
         <v>50</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="6" t="s">
@@ -1434,7 +1439,7 @@
     <row r="6" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A6" s="33"/>
       <c r="B6" s="15" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="6" t="s">
@@ -1463,7 +1468,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="6" t="s">
@@ -1493,7 +1498,7 @@
         <v>81</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="6" t="s">
@@ -1502,19 +1507,19 @@
       <c r="E7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="40">
-        <v>1</v>
-      </c>
-      <c r="G7" s="40">
-        <v>1</v>
-      </c>
-      <c r="H7" s="40">
-        <v>1</v>
-      </c>
-      <c r="I7" s="40">
-        <v>1</v>
-      </c>
-      <c r="J7" s="40">
+      <c r="F7" s="41">
+        <v>1</v>
+      </c>
+      <c r="G7" s="41">
+        <v>1</v>
+      </c>
+      <c r="H7" s="41">
+        <v>1</v>
+      </c>
+      <c r="I7" s="41">
+        <v>1</v>
+      </c>
+      <c r="J7" s="41">
         <v>1</v>
       </c>
       <c r="K7" s="5"/>
@@ -1522,7 +1527,7 @@
         <v>86</v>
       </c>
       <c r="M7" s="15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="6" t="s">
@@ -1581,7 +1586,7 @@
         <v>40</v>
       </c>
       <c r="M8" s="15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="6" t="s">
@@ -1611,7 +1616,7 @@
         <v>32</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6" t="s">
@@ -1640,7 +1645,7 @@
         <v>45</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="6" t="s">
@@ -1668,7 +1673,7 @@
     <row r="10" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A10" s="33"/>
       <c r="B10" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="6" t="s">
@@ -1697,7 +1702,7 @@
         <v>47</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="6" t="s">
@@ -1727,7 +1732,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="6" t="s">
@@ -1756,7 +1761,7 @@
         <v>46</v>
       </c>
       <c r="M11" s="15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="6" t="s">
@@ -1782,9 +1787,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A12" s="44"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="15" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="6" t="s">
@@ -1813,7 +1818,7 @@
         <v>82</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="6" t="s">
@@ -1839,11 +1844,11 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="35" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="6" t="s">
@@ -1872,7 +1877,7 @@
         <v>42</v>
       </c>
       <c r="M13" s="15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="6" t="s">
@@ -1898,9 +1903,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A14" s="44"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
@@ -1929,7 +1934,7 @@
         <v>48</v>
       </c>
       <c r="M14" s="15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="6" t="s">
@@ -1955,11 +1960,11 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.5">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="33" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="6" t="s">
@@ -1988,7 +1993,7 @@
         <v>84</v>
       </c>
       <c r="M15" s="15" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="6" t="s">
@@ -2016,7 +2021,7 @@
     <row r="16" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A16" s="33"/>
       <c r="B16" s="15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="6" t="s">
@@ -2057,7 +2062,7 @@
         <v>53</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="6" t="s">
@@ -2116,7 +2121,7 @@
     <row r="18" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A18" s="33"/>
       <c r="B18" s="15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="6" t="s">
@@ -2145,7 +2150,7 @@
         <v>22</v>
       </c>
       <c r="M18" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="6" t="s">
@@ -2154,16 +2159,16 @@
       <c r="P18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="37">
-        <v>1</v>
-      </c>
-      <c r="R18" s="37">
-        <v>1</v>
-      </c>
-      <c r="S18" s="37">
-        <v>1</v>
-      </c>
-      <c r="T18" s="37">
+      <c r="Q18" s="38">
+        <v>1</v>
+      </c>
+      <c r="R18" s="38">
+        <v>1</v>
+      </c>
+      <c r="S18" s="38">
+        <v>1</v>
+      </c>
+      <c r="T18" s="38">
         <v>1</v>
       </c>
       <c r="U18" s="23">
@@ -2175,7 +2180,7 @@
         <v>61</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="6" t="s">
@@ -2202,7 +2207,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="28"/>
       <c r="M19" s="15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="6" t="s">
@@ -2211,16 +2216,16 @@
       <c r="P19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="37">
-        <v>1</v>
-      </c>
-      <c r="R19" s="37">
-        <v>1</v>
-      </c>
-      <c r="S19" s="37">
-        <v>1</v>
-      </c>
-      <c r="T19" s="37">
+      <c r="Q19" s="38">
+        <v>1</v>
+      </c>
+      <c r="R19" s="38">
+        <v>1</v>
+      </c>
+      <c r="S19" s="38">
+        <v>1</v>
+      </c>
+      <c r="T19" s="38">
         <v>1</v>
       </c>
       <c r="U19" s="23">
@@ -2230,7 +2235,7 @@
     <row r="20" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A20" s="33"/>
       <c r="B20" s="15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="6" t="s">
@@ -2259,7 +2264,7 @@
         <v>23</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="6" t="s">
@@ -2268,16 +2273,16 @@
       <c r="P20" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="37">
-        <v>1</v>
-      </c>
-      <c r="R20" s="37">
-        <v>1</v>
-      </c>
-      <c r="S20" s="37">
-        <v>1</v>
-      </c>
-      <c r="T20" s="37">
+      <c r="Q20" s="38">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
+        <v>1</v>
+      </c>
+      <c r="S20" s="38">
+        <v>1</v>
+      </c>
+      <c r="T20" s="38">
         <v>1</v>
       </c>
       <c r="U20" s="23">
@@ -2289,7 +2294,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="6" t="s">
@@ -2316,7 +2321,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="28"/>
       <c r="M21" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="6" t="s">
@@ -2325,16 +2330,16 @@
       <c r="P21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="37">
-        <v>1</v>
-      </c>
-      <c r="R21" s="37">
-        <v>1</v>
-      </c>
-      <c r="S21" s="37">
-        <v>1</v>
-      </c>
-      <c r="T21" s="37">
+      <c r="Q21" s="38">
+        <v>1</v>
+      </c>
+      <c r="R21" s="38">
+        <v>1</v>
+      </c>
+      <c r="S21" s="38">
+        <v>1</v>
+      </c>
+      <c r="T21" s="38">
         <v>1</v>
       </c>
       <c r="U21" s="23">
@@ -2375,7 +2380,7 @@
         <v>38</v>
       </c>
       <c r="M22" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="6" t="s">
@@ -2384,16 +2389,16 @@
       <c r="P22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="37">
-        <v>1</v>
-      </c>
-      <c r="R22" s="37">
-        <v>1</v>
-      </c>
-      <c r="S22" s="37">
-        <v>1</v>
-      </c>
-      <c r="T22" s="37">
+      <c r="Q22" s="38">
+        <v>1</v>
+      </c>
+      <c r="R22" s="38">
+        <v>1</v>
+      </c>
+      <c r="S22" s="38">
+        <v>1</v>
+      </c>
+      <c r="T22" s="38">
         <v>1</v>
       </c>
       <c r="U22" s="23">
@@ -2429,7 +2434,7 @@
       </c>
       <c r="K23" s="5"/>
       <c r="M23" s="15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="6" t="s">
@@ -2438,16 +2443,16 @@
       <c r="P23" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="37">
-        <v>1</v>
-      </c>
-      <c r="R23" s="37">
-        <v>1</v>
-      </c>
-      <c r="S23" s="37">
-        <v>1</v>
-      </c>
-      <c r="T23" s="37">
+      <c r="Q23" s="38">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38">
+        <v>1</v>
+      </c>
+      <c r="S23" s="38">
+        <v>1</v>
+      </c>
+      <c r="T23" s="38">
         <v>1</v>
       </c>
       <c r="U23" s="23">
@@ -2459,7 +2464,7 @@
         <v>94</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="6" t="s">
@@ -2468,19 +2473,19 @@
       <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="37">
-        <v>1</v>
-      </c>
-      <c r="G24" s="37">
-        <v>1</v>
-      </c>
-      <c r="H24" s="37">
-        <v>1</v>
-      </c>
-      <c r="I24" s="37">
-        <v>1</v>
-      </c>
-      <c r="J24" s="37">
+      <c r="F24" s="38">
+        <v>1</v>
+      </c>
+      <c r="G24" s="38">
+        <v>1</v>
+      </c>
+      <c r="H24" s="38">
+        <v>1</v>
+      </c>
+      <c r="I24" s="38">
+        <v>1</v>
+      </c>
+      <c r="J24" s="38">
         <v>1</v>
       </c>
       <c r="K24" s="5"/>
@@ -2488,7 +2493,7 @@
         <v>57</v>
       </c>
       <c r="M24" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N24" s="7"/>
       <c r="O24" s="6" t="s">
@@ -2497,16 +2502,16 @@
       <c r="P24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q24" s="37">
-        <v>1</v>
-      </c>
-      <c r="R24" s="37">
-        <v>1</v>
-      </c>
-      <c r="S24" s="37">
-        <v>1</v>
-      </c>
-      <c r="T24" s="37">
+      <c r="Q24" s="38">
+        <v>1</v>
+      </c>
+      <c r="R24" s="38">
+        <v>1</v>
+      </c>
+      <c r="S24" s="38">
+        <v>1</v>
+      </c>
+      <c r="T24" s="38">
         <v>1</v>
       </c>
       <c r="U24" s="23">
@@ -2518,7 +2523,7 @@
         <v>95</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="6" t="s">
@@ -2527,25 +2532,25 @@
       <c r="E25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="37">
-        <v>1</v>
-      </c>
-      <c r="G25" s="37">
-        <v>1</v>
-      </c>
-      <c r="H25" s="37">
-        <v>1</v>
-      </c>
-      <c r="I25" s="37">
-        <v>1</v>
-      </c>
-      <c r="J25" s="37">
+      <c r="F25" s="38">
+        <v>1</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1</v>
+      </c>
+      <c r="H25" s="38">
+        <v>1</v>
+      </c>
+      <c r="I25" s="38">
+        <v>1</v>
+      </c>
+      <c r="J25" s="38">
         <v>1</v>
       </c>
       <c r="K25" s="5"/>
       <c r="L25" s="28"/>
       <c r="M25" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N25" s="7"/>
       <c r="O25" s="6" t="s">
@@ -2554,16 +2559,16 @@
       <c r="P25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q25" s="37">
-        <v>1</v>
-      </c>
-      <c r="R25" s="37">
-        <v>1</v>
-      </c>
-      <c r="S25" s="37">
-        <v>1</v>
-      </c>
-      <c r="T25" s="37">
+      <c r="Q25" s="38">
+        <v>1</v>
+      </c>
+      <c r="R25" s="38">
+        <v>1</v>
+      </c>
+      <c r="S25" s="38">
+        <v>1</v>
+      </c>
+      <c r="T25" s="38">
         <v>1</v>
       </c>
       <c r="U25" s="23">
@@ -2575,7 +2580,7 @@
         <v>96</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="6" t="s">
@@ -2584,19 +2589,19 @@
       <c r="E26" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="37">
-        <v>1</v>
-      </c>
-      <c r="G26" s="37">
-        <v>1</v>
-      </c>
-      <c r="H26" s="37">
-        <v>1</v>
-      </c>
-      <c r="I26" s="37">
-        <v>1</v>
-      </c>
-      <c r="J26" s="37">
+      <c r="F26" s="38">
+        <v>1</v>
+      </c>
+      <c r="G26" s="38">
+        <v>1</v>
+      </c>
+      <c r="H26" s="38">
+        <v>1</v>
+      </c>
+      <c r="I26" s="38">
+        <v>1</v>
+      </c>
+      <c r="J26" s="38">
         <v>1</v>
       </c>
       <c r="K26" s="5"/>
@@ -2604,7 +2609,7 @@
         <v>58</v>
       </c>
       <c r="M26" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="6" t="s">
@@ -2613,16 +2618,16 @@
       <c r="P26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q26" s="37">
-        <v>1</v>
-      </c>
-      <c r="R26" s="37">
-        <v>1</v>
-      </c>
-      <c r="S26" s="37">
-        <v>1</v>
-      </c>
-      <c r="T26" s="37">
+      <c r="Q26" s="38">
+        <v>1</v>
+      </c>
+      <c r="R26" s="38">
+        <v>1</v>
+      </c>
+      <c r="S26" s="38">
+        <v>1</v>
+      </c>
+      <c r="T26" s="38">
         <v>1</v>
       </c>
       <c r="U26" s="23">
@@ -2634,7 +2639,7 @@
         <v>97</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="6" t="s">
@@ -2643,25 +2648,25 @@
       <c r="E27" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="37">
-        <v>1</v>
-      </c>
-      <c r="G27" s="37">
-        <v>1</v>
-      </c>
-      <c r="H27" s="37">
-        <v>1</v>
-      </c>
-      <c r="I27" s="37">
-        <v>1</v>
-      </c>
-      <c r="J27" s="37">
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="38">
+        <v>1</v>
+      </c>
+      <c r="H27" s="38">
+        <v>1</v>
+      </c>
+      <c r="I27" s="38">
+        <v>1</v>
+      </c>
+      <c r="J27" s="38">
         <v>1</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="28"/>
       <c r="M27" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N27" s="7"/>
       <c r="O27" s="6" t="s">
@@ -2670,16 +2675,16 @@
       <c r="P27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q27" s="37">
-        <v>1</v>
-      </c>
-      <c r="R27" s="37">
-        <v>1</v>
-      </c>
-      <c r="S27" s="37">
-        <v>1</v>
-      </c>
-      <c r="T27" s="37">
+      <c r="Q27" s="38">
+        <v>1</v>
+      </c>
+      <c r="R27" s="38">
+        <v>1</v>
+      </c>
+      <c r="S27" s="38">
+        <v>1</v>
+      </c>
+      <c r="T27" s="38">
         <v>1</v>
       </c>
       <c r="U27" s="23">
@@ -2691,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="6" t="s">
@@ -2720,7 +2725,7 @@
         <v>59</v>
       </c>
       <c r="M28" s="15" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="6" t="s">
@@ -2748,7 +2753,7 @@
     <row r="29" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A29" s="33"/>
       <c r="B29" s="15" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="6" t="s">
@@ -2777,7 +2782,7 @@
         <v>78</v>
       </c>
       <c r="M29" s="15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N29" s="7"/>
       <c r="O29" s="6" t="s">
@@ -2807,7 +2812,7 @@
         <v>68</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="6" t="s">
@@ -2836,7 +2841,7 @@
         <v>79</v>
       </c>
       <c r="M30" s="15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N30" s="7"/>
       <c r="O30" s="6" t="s">
@@ -2864,7 +2869,7 @@
     <row r="31" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A31" s="33"/>
       <c r="B31" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
@@ -2893,7 +2898,7 @@
         <v>72</v>
       </c>
       <c r="M31" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="6" t="s">
@@ -2902,16 +2907,16 @@
       <c r="P31" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q31" s="37">
-        <v>1</v>
-      </c>
-      <c r="R31" s="37">
-        <v>1</v>
-      </c>
-      <c r="S31" s="37">
-        <v>1</v>
-      </c>
-      <c r="T31" s="37">
+      <c r="Q31" s="38">
+        <v>1</v>
+      </c>
+      <c r="R31" s="38">
+        <v>1</v>
+      </c>
+      <c r="S31" s="38">
+        <v>1</v>
+      </c>
+      <c r="T31" s="38">
         <v>1</v>
       </c>
       <c r="U31" s="23">
@@ -2923,7 +2928,7 @@
         <v>10</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="6" t="s">
@@ -2950,7 +2955,7 @@
       <c r="K32" s="5"/>
       <c r="L32" s="28"/>
       <c r="M32" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="6" t="s">
@@ -2959,16 +2964,16 @@
       <c r="P32" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="Q32" s="37">
-        <v>1</v>
-      </c>
-      <c r="R32" s="37">
-        <v>1</v>
-      </c>
-      <c r="S32" s="37">
-        <v>1</v>
-      </c>
-      <c r="T32" s="37">
+      <c r="Q32" s="38">
+        <v>1</v>
+      </c>
+      <c r="R32" s="38">
+        <v>1</v>
+      </c>
+      <c r="S32" s="38">
+        <v>1</v>
+      </c>
+      <c r="T32" s="38">
         <v>1</v>
       </c>
       <c r="U32" s="23">
@@ -2978,7 +2983,7 @@
     <row r="33" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A33" s="33"/>
       <c r="B33" s="15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="6" t="s">
@@ -3007,7 +3012,7 @@
         <v>74</v>
       </c>
       <c r="M33" s="15" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="6" t="s">
@@ -3016,16 +3021,16 @@
       <c r="P33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q33" s="37">
-        <v>1</v>
-      </c>
-      <c r="R33" s="37">
-        <v>1</v>
-      </c>
-      <c r="S33" s="37">
-        <v>1</v>
-      </c>
-      <c r="T33" s="37">
+      <c r="Q33" s="38">
+        <v>1</v>
+      </c>
+      <c r="R33" s="38">
+        <v>1</v>
+      </c>
+      <c r="S33" s="38">
+        <v>1</v>
+      </c>
+      <c r="T33" s="38">
         <v>1</v>
       </c>
       <c r="U33" s="23">
@@ -3037,7 +3042,7 @@
         <v>69</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="6" t="s">
@@ -3064,7 +3069,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="28"/>
       <c r="M34" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N34" s="7"/>
       <c r="O34" s="6" t="s">
@@ -3073,16 +3078,16 @@
       <c r="P34" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q34" s="37">
-        <v>1</v>
-      </c>
-      <c r="R34" s="37">
-        <v>1</v>
-      </c>
-      <c r="S34" s="37">
-        <v>1</v>
-      </c>
-      <c r="T34" s="37">
+      <c r="Q34" s="38">
+        <v>1</v>
+      </c>
+      <c r="R34" s="38">
+        <v>1</v>
+      </c>
+      <c r="S34" s="38">
+        <v>1</v>
+      </c>
+      <c r="T34" s="38">
         <v>1</v>
       </c>
       <c r="U34" s="23">
@@ -3094,7 +3099,7 @@
         <v>83</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="6" t="s">
@@ -3103,27 +3108,27 @@
       <c r="E35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="40">
-        <v>1</v>
-      </c>
-      <c r="G35" s="40">
-        <v>1</v>
-      </c>
-      <c r="H35" s="40">
-        <v>1</v>
-      </c>
-      <c r="I35" s="40">
-        <v>1</v>
-      </c>
-      <c r="J35" s="40">
+      <c r="F35" s="41">
+        <v>1</v>
+      </c>
+      <c r="G35" s="41">
+        <v>1</v>
+      </c>
+      <c r="H35" s="41">
+        <v>1</v>
+      </c>
+      <c r="I35" s="41">
+        <v>1</v>
+      </c>
+      <c r="J35" s="41">
         <v>1</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M35" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N35" s="7"/>
       <c r="O35" s="6" t="s">
@@ -3132,16 +3137,16 @@
       <c r="P35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q35" s="37">
-        <v>1</v>
-      </c>
-      <c r="R35" s="37">
-        <v>1</v>
-      </c>
-      <c r="S35" s="37">
-        <v>1</v>
-      </c>
-      <c r="T35" s="37">
+      <c r="Q35" s="38">
+        <v>1</v>
+      </c>
+      <c r="R35" s="38">
+        <v>1</v>
+      </c>
+      <c r="S35" s="38">
+        <v>1</v>
+      </c>
+      <c r="T35" s="38">
         <v>1</v>
       </c>
       <c r="U35" s="23">
@@ -3153,7 +3158,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="6" t="s">
@@ -3180,7 +3185,7 @@
       <c r="K36" s="5"/>
       <c r="L36" s="28"/>
       <c r="M36" s="15" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N36" s="7"/>
       <c r="O36" s="6" t="s">
@@ -3189,16 +3194,16 @@
       <c r="P36" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q36" s="37">
-        <v>1</v>
-      </c>
-      <c r="R36" s="37">
-        <v>1</v>
-      </c>
-      <c r="S36" s="37">
-        <v>1</v>
-      </c>
-      <c r="T36" s="37">
+      <c r="Q36" s="38">
+        <v>1</v>
+      </c>
+      <c r="R36" s="38">
+        <v>1</v>
+      </c>
+      <c r="S36" s="38">
+        <v>1</v>
+      </c>
+      <c r="T36" s="38">
         <v>1</v>
       </c>
       <c r="U36" s="23">
@@ -3208,7 +3213,7 @@
     <row r="37" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A37" s="33"/>
       <c r="B37" s="15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="6" t="s">
@@ -3237,7 +3242,7 @@
         <v>75</v>
       </c>
       <c r="M37" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N37" s="7"/>
       <c r="O37" s="6" t="s">
@@ -3246,16 +3251,16 @@
       <c r="P37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q37" s="37">
-        <v>1</v>
-      </c>
-      <c r="R37" s="37">
-        <v>1</v>
-      </c>
-      <c r="S37" s="37">
-        <v>1</v>
-      </c>
-      <c r="T37" s="37">
+      <c r="Q37" s="38">
+        <v>1</v>
+      </c>
+      <c r="R37" s="38">
+        <v>1</v>
+      </c>
+      <c r="S37" s="38">
+        <v>1</v>
+      </c>
+      <c r="T37" s="38">
         <v>1</v>
       </c>
       <c r="U37" s="23">
@@ -3267,7 +3272,7 @@
         <v>64</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="6" t="s">
@@ -3294,7 +3299,7 @@
       <c r="K38" s="5"/>
       <c r="L38" s="28"/>
       <c r="M38" s="15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="6" t="s">
@@ -3303,16 +3308,16 @@
       <c r="P38" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q38" s="37">
-        <v>1</v>
-      </c>
-      <c r="R38" s="37">
-        <v>1</v>
-      </c>
-      <c r="S38" s="37">
-        <v>1</v>
-      </c>
-      <c r="T38" s="37">
+      <c r="Q38" s="38">
+        <v>1</v>
+      </c>
+      <c r="R38" s="38">
+        <v>1</v>
+      </c>
+      <c r="S38" s="38">
+        <v>1</v>
+      </c>
+      <c r="T38" s="38">
         <v>1</v>
       </c>
       <c r="U38" s="23">
@@ -3322,7 +3327,7 @@
     <row r="39" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A39" s="33"/>
       <c r="B39" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="6" t="s">
@@ -3331,19 +3336,19 @@
       <c r="E39" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F39" s="37">
-        <v>1</v>
-      </c>
-      <c r="G39" s="37">
-        <v>1</v>
-      </c>
-      <c r="H39" s="37">
-        <v>1</v>
-      </c>
-      <c r="I39" s="37">
-        <v>1</v>
-      </c>
-      <c r="J39" s="37">
+      <c r="F39" s="38">
+        <v>1</v>
+      </c>
+      <c r="G39" s="38">
+        <v>1</v>
+      </c>
+      <c r="H39" s="38">
+        <v>1</v>
+      </c>
+      <c r="I39" s="38">
+        <v>1</v>
+      </c>
+      <c r="J39" s="38">
         <v>1</v>
       </c>
       <c r="K39" s="5"/>
@@ -3351,7 +3356,7 @@
         <v>76</v>
       </c>
       <c r="M39" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N39" s="7"/>
       <c r="O39" s="6" t="s">
@@ -3381,7 +3386,7 @@
         <v>66</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="6" t="s">
@@ -3408,7 +3413,7 @@
       <c r="K40" s="5"/>
       <c r="L40" s="28"/>
       <c r="M40" s="15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N40" s="7"/>
       <c r="O40" s="6" t="s">
@@ -3417,16 +3422,16 @@
       <c r="P40" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q40" s="37">
-        <v>1</v>
-      </c>
-      <c r="R40" s="37">
-        <v>1</v>
-      </c>
-      <c r="S40" s="37">
-        <v>1</v>
-      </c>
-      <c r="T40" s="37">
+      <c r="Q40" s="38">
+        <v>1</v>
+      </c>
+      <c r="R40" s="38">
+        <v>1</v>
+      </c>
+      <c r="S40" s="38">
+        <v>1</v>
+      </c>
+      <c r="T40" s="38">
         <v>1</v>
       </c>
       <c r="U40" s="23">
@@ -3436,7 +3441,7 @@
     <row r="41" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A41" s="33"/>
       <c r="B41" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="6" t="s">
@@ -3445,19 +3450,19 @@
       <c r="E41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F41" s="37">
-        <v>1</v>
-      </c>
-      <c r="G41" s="37">
-        <v>1</v>
-      </c>
-      <c r="H41" s="37">
-        <v>1</v>
-      </c>
-      <c r="I41" s="37">
-        <v>1</v>
-      </c>
-      <c r="J41" s="37">
+      <c r="F41" s="38">
+        <v>1</v>
+      </c>
+      <c r="G41" s="38">
+        <v>1</v>
+      </c>
+      <c r="H41" s="38">
+        <v>1</v>
+      </c>
+      <c r="I41" s="38">
+        <v>1</v>
+      </c>
+      <c r="J41" s="38">
         <v>1</v>
       </c>
       <c r="K41" s="5"/>
@@ -3465,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="M41" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N41" s="7"/>
       <c r="O41" s="6" t="s">
@@ -3474,16 +3479,16 @@
       <c r="P41" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q41" s="37">
-        <v>1</v>
-      </c>
-      <c r="R41" s="37">
-        <v>1</v>
-      </c>
-      <c r="S41" s="37">
-        <v>1</v>
-      </c>
-      <c r="T41" s="37">
+      <c r="Q41" s="38">
+        <v>1</v>
+      </c>
+      <c r="R41" s="38">
+        <v>1</v>
+      </c>
+      <c r="S41" s="38">
+        <v>1</v>
+      </c>
+      <c r="T41" s="38">
         <v>1</v>
       </c>
       <c r="U41" s="23">
@@ -3495,7 +3500,7 @@
         <v>67</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="6" t="s">
@@ -3504,25 +3509,25 @@
       <c r="E42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="39">
         <v>1000</v>
       </c>
-      <c r="G42" s="38">
+      <c r="G42" s="39">
         <v>1000</v>
       </c>
-      <c r="H42" s="38">
+      <c r="H42" s="39">
         <v>1000</v>
       </c>
-      <c r="I42" s="38">
+      <c r="I42" s="39">
         <v>1000</v>
       </c>
-      <c r="J42" s="38">
+      <c r="J42" s="39">
         <v>1000</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42" s="28"/>
       <c r="M42" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="6" t="s">
@@ -3531,16 +3536,16 @@
       <c r="P42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q42" s="37">
-        <v>1</v>
-      </c>
-      <c r="R42" s="37">
-        <v>1</v>
-      </c>
-      <c r="S42" s="37">
-        <v>1</v>
-      </c>
-      <c r="T42" s="37">
+      <c r="Q42" s="38">
+        <v>1</v>
+      </c>
+      <c r="R42" s="38">
+        <v>1</v>
+      </c>
+      <c r="S42" s="38">
+        <v>1</v>
+      </c>
+      <c r="T42" s="38">
         <v>1</v>
       </c>
       <c r="U42" s="23">
@@ -3550,7 +3555,7 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A43" s="33"/>
       <c r="B43" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="6" t="s">
@@ -3559,19 +3564,19 @@
       <c r="E43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F43" s="37">
-        <v>1</v>
-      </c>
-      <c r="G43" s="37">
-        <v>1</v>
-      </c>
-      <c r="H43" s="37">
-        <v>1</v>
-      </c>
-      <c r="I43" s="37">
-        <v>1</v>
-      </c>
-      <c r="J43" s="37">
+      <c r="F43" s="38">
+        <v>1</v>
+      </c>
+      <c r="G43" s="38">
+        <v>1</v>
+      </c>
+      <c r="H43" s="38">
+        <v>1</v>
+      </c>
+      <c r="I43" s="38">
+        <v>1</v>
+      </c>
+      <c r="J43" s="38">
         <v>1</v>
       </c>
       <c r="K43" s="5"/>
@@ -3579,7 +3584,7 @@
         <v>55</v>
       </c>
       <c r="M43" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N43" s="7"/>
       <c r="O43" s="6" t="s">
@@ -3588,16 +3593,16 @@
       <c r="P43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q43" s="37">
-        <v>1</v>
-      </c>
-      <c r="R43" s="37">
-        <v>1</v>
-      </c>
-      <c r="S43" s="37">
-        <v>1</v>
-      </c>
-      <c r="T43" s="37">
+      <c r="Q43" s="38">
+        <v>1</v>
+      </c>
+      <c r="R43" s="38">
+        <v>1</v>
+      </c>
+      <c r="S43" s="38">
+        <v>1</v>
+      </c>
+      <c r="T43" s="38">
         <v>1</v>
       </c>
       <c r="U43" s="23">
@@ -3609,7 +3614,7 @@
         <v>16</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="6" t="s">
@@ -3636,7 +3641,7 @@
       <c r="K44" s="5"/>
       <c r="L44" s="28"/>
       <c r="M44" s="15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N44" s="7"/>
       <c r="O44" s="6" t="s">
@@ -3645,16 +3650,16 @@
       <c r="P44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Q44" s="37">
-        <v>1</v>
-      </c>
-      <c r="R44" s="37">
-        <v>1</v>
-      </c>
-      <c r="S44" s="37">
-        <v>1</v>
-      </c>
-      <c r="T44" s="37">
+      <c r="Q44" s="38">
+        <v>1</v>
+      </c>
+      <c r="R44" s="38">
+        <v>1</v>
+      </c>
+      <c r="S44" s="38">
+        <v>1</v>
+      </c>
+      <c r="T44" s="38">
         <v>1</v>
       </c>
       <c r="U44" s="23">
@@ -3664,7 +3669,7 @@
     <row r="45" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A45" s="33"/>
       <c r="B45" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="6" t="s">
@@ -3673,19 +3678,19 @@
       <c r="E45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="37">
-        <v>1</v>
-      </c>
-      <c r="G45" s="37">
-        <v>1</v>
-      </c>
-      <c r="H45" s="37">
-        <v>1</v>
-      </c>
-      <c r="I45" s="37">
-        <v>1</v>
-      </c>
-      <c r="J45" s="37">
+      <c r="F45" s="38">
+        <v>1</v>
+      </c>
+      <c r="G45" s="38">
+        <v>1</v>
+      </c>
+      <c r="H45" s="38">
+        <v>1</v>
+      </c>
+      <c r="I45" s="38">
+        <v>1</v>
+      </c>
+      <c r="J45" s="38">
         <v>1</v>
       </c>
       <c r="K45" s="5"/>
@@ -3705,7 +3710,7 @@
         <v>33</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="6" t="s">
@@ -3764,7 +3769,7 @@
     <row r="47" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A47" s="33"/>
       <c r="B47" s="15" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="6" t="s">
@@ -3773,19 +3778,19 @@
       <c r="E47" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F47" s="37">
-        <v>1</v>
-      </c>
-      <c r="G47" s="37">
-        <v>1</v>
-      </c>
-      <c r="H47" s="37">
-        <v>1</v>
-      </c>
-      <c r="I47" s="37">
-        <v>1</v>
-      </c>
-      <c r="J47" s="37">
+      <c r="F47" s="38">
+        <v>1</v>
+      </c>
+      <c r="G47" s="38">
+        <v>1</v>
+      </c>
+      <c r="H47" s="38">
+        <v>1</v>
+      </c>
+      <c r="I47" s="38">
+        <v>1</v>
+      </c>
+      <c r="J47" s="38">
         <v>1</v>
       </c>
       <c r="K47" s="5"/>
@@ -3793,7 +3798,7 @@
         <v>18</v>
       </c>
       <c r="M47" s="15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N47" s="7"/>
       <c r="O47" s="6" t="s">
@@ -3823,7 +3828,7 @@
         <v>34</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="6" t="s">
@@ -3852,7 +3857,7 @@
         <v>17</v>
       </c>
       <c r="M48" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="6" t="s">
@@ -3880,7 +3885,7 @@
     <row r="49" spans="1:21" x14ac:dyDescent="0.5">
       <c r="A49" s="33"/>
       <c r="B49" s="15" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="6" t="s">
@@ -3889,19 +3894,19 @@
       <c r="E49" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F49" s="37">
-        <v>1</v>
-      </c>
-      <c r="G49" s="37">
-        <v>1</v>
-      </c>
-      <c r="H49" s="37">
-        <v>1</v>
-      </c>
-      <c r="I49" s="37">
-        <v>1</v>
-      </c>
-      <c r="J49" s="37">
+      <c r="F49" s="38">
+        <v>1</v>
+      </c>
+      <c r="G49" s="38">
+        <v>1</v>
+      </c>
+      <c r="H49" s="38">
+        <v>1</v>
+      </c>
+      <c r="I49" s="38">
+        <v>1</v>
+      </c>
+      <c r="J49" s="38">
         <v>1</v>
       </c>
       <c r="K49" s="5"/>
@@ -3909,7 +3914,7 @@
         <v>19</v>
       </c>
       <c r="M49" s="15" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N49" s="7"/>
       <c r="O49" s="6" t="s">
@@ -3939,7 +3944,7 @@
         <v>52</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="6" t="s">
@@ -3968,7 +3973,7 @@
         <v>20</v>
       </c>
       <c r="M50" s="15" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="6" t="s">
@@ -3996,7 +4001,7 @@
     <row r="51" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A51" s="33"/>
       <c r="B51" s="15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="6" t="s">
@@ -4005,19 +4010,19 @@
       <c r="E51" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F51" s="37">
-        <v>1</v>
-      </c>
-      <c r="G51" s="37">
-        <v>1</v>
-      </c>
-      <c r="H51" s="37">
-        <v>1</v>
-      </c>
-      <c r="I51" s="37">
-        <v>1</v>
-      </c>
-      <c r="J51" s="37">
+      <c r="F51" s="38">
+        <v>1</v>
+      </c>
+      <c r="G51" s="38">
+        <v>1</v>
+      </c>
+      <c r="H51" s="38">
+        <v>1</v>
+      </c>
+      <c r="I51" s="38">
+        <v>1</v>
+      </c>
+      <c r="J51" s="38">
         <v>1</v>
       </c>
       <c r="K51" s="5"/>
@@ -4025,7 +4030,7 @@
         <v>21</v>
       </c>
       <c r="M51" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N51" s="7"/>
       <c r="O51" s="6" t="s">
@@ -4051,7 +4056,7 @@
       </c>
     </row>
     <row r="52" spans="1:21" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="35"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="17"/>
       <c r="C52" s="20"/>
       <c r="D52" s="9"/>
@@ -4066,7 +4071,7 @@
         <v>60</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N52" s="20"/>
       <c r="O52" s="9" t="s">
@@ -4092,11 +4097,11 @@
       </c>
     </row>
     <row r="53" spans="1:21" ht="21" x14ac:dyDescent="0.5">
-      <c r="A53" s="36" t="s">
+      <c r="A53" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="39" t="s">
-        <v>159</v>
+      <c r="B53" s="40" t="s">
+        <v>160</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="6"/>
@@ -4119,8 +4124,8 @@
       <c r="U53" s="6"/>
     </row>
     <row r="54" spans="1:21" ht="21" x14ac:dyDescent="0.5">
-      <c r="A54" s="36" t="s">
-        <v>100</v>
+      <c r="A54" s="37" t="s">
+        <v>101</v>
       </c>
       <c r="B54" s="15"/>
       <c r="C54" s="7"/>
@@ -4143,9 +4148,9 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
     </row>
-    <row r="55" spans="1:21" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A55" s="36" t="s">
-        <v>164</v>
+    <row r="55" spans="1:21" ht="21" x14ac:dyDescent="0.5">
+      <c r="A55" s="37" t="s">
+        <v>100</v>
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="7"/>
